--- a/tervek/diagramok/Egyed-esemeny_matrix/Egyed-esemény_mátrix.xlsx
+++ b/tervek/diagramok/Egyed-esemeny_matrix/Egyed-esemény_mátrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\4. felev\adatbázis alapú rendszerek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\4. felev\adatbázis alapú rendszerek\2024-adatb-projekt-drive-1\diagramok\Egyed-esemeny_matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89A90B8-0BCB-4064-A0BE-0A750E3BDC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2942FED-3C4B-454B-B984-3C6A5A353798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8214DB5F-CCB1-49AA-97C2-6BFD1E996B51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12612" windowHeight="12360" xr2:uid="{8214DB5F-CCB1-49AA-97C2-6BFD1E996B51}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,38 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Login/password(D1)</t>
   </si>
   <si>
-    <t>Fájlok(D1)</t>
-  </si>
-  <si>
     <t>Regisztráció</t>
   </si>
   <si>
     <t>Bejelentkezés</t>
   </si>
   <si>
-    <t>Adatok lekérdezése</t>
-  </si>
-  <si>
-    <t>Adatok módosítása</t>
-  </si>
-  <si>
-    <t>Adatok keresése</t>
-  </si>
-  <si>
-    <t>Adatokra reagálás</t>
-  </si>
-  <si>
     <t>Login/password módosítás</t>
   </si>
   <si>
-    <t>Adatok megosztása</t>
-  </si>
-  <si>
     <t>Felhasználó törlése</t>
   </si>
   <si>
@@ -78,13 +60,40 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Fájlok(D2)</t>
+  </si>
+  <si>
+    <t>Fájlok feltöltése</t>
+  </si>
+  <si>
+    <t>Mappák/Fájlok törlése</t>
+  </si>
+  <si>
+    <t>Komment írása</t>
+  </si>
+  <si>
+    <t>Komment tölrése</t>
+  </si>
+  <si>
+    <t>Fiók törlése</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fájlok/mappák listázása</t>
+  </si>
+  <si>
+    <t>Fájlok letöltése</t>
+  </si>
+  <si>
+    <t>Mappák létrehozása</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +118,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -153,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,93 +514,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766BD39A-9323-4E7C-8EA1-5E4BEDCB49A8}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="10" width="5.77734375" customWidth="1"/>
+    <col min="2" max="13" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
